--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Jag1-Cd46.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Jag1-Cd46.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.636417666666667</v>
+        <v>11.190867</v>
       </c>
       <c r="H2">
-        <v>22.909253</v>
+        <v>33.572601</v>
       </c>
       <c r="I2">
-        <v>0.108532481296676</v>
+        <v>0.1514016037116739</v>
       </c>
       <c r="J2">
-        <v>0.108532481296676</v>
+        <v>0.1514016037116739</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.682562333333333</v>
+        <v>5.008808666666667</v>
       </c>
       <c r="N2">
-        <v>29.047687</v>
+        <v>15.026426</v>
       </c>
       <c r="O2">
-        <v>0.5358521175370563</v>
+        <v>0.3739112966508367</v>
       </c>
       <c r="P2">
-        <v>0.5358521175370563</v>
+        <v>0.3739112966508367</v>
       </c>
       <c r="Q2">
-        <v>73.94009006086789</v>
+        <v>56.052911617114</v>
       </c>
       <c r="R2">
-        <v>665.460810547811</v>
+        <v>504.476204554026</v>
       </c>
       <c r="S2">
-        <v>0.05815735992437478</v>
+        <v>0.0566107699588481</v>
       </c>
       <c r="T2">
-        <v>0.05815735992437479</v>
+        <v>0.0566107699588481</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.636417666666667</v>
+        <v>11.190867</v>
       </c>
       <c r="H3">
-        <v>22.909253</v>
+        <v>33.572601</v>
       </c>
       <c r="I3">
-        <v>0.108532481296676</v>
+        <v>0.1514016037116739</v>
       </c>
       <c r="J3">
-        <v>0.108532481296676</v>
+        <v>0.1514016037116739</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>12.589301</v>
       </c>
       <c r="O3">
-        <v>0.2322389248810544</v>
+        <v>0.3132668979860996</v>
       </c>
       <c r="P3">
-        <v>0.2322389248810544</v>
+        <v>0.3132668979860996</v>
       </c>
       <c r="Q3">
-        <v>32.04572018912811</v>
+        <v>46.961731037989</v>
       </c>
       <c r="R3">
-        <v>288.411481702153</v>
+        <v>422.655579341901</v>
       </c>
       <c r="S3">
-        <v>0.02520546677101317</v>
+        <v>0.04742911074487681</v>
       </c>
       <c r="T3">
-        <v>0.02520546677101318</v>
+        <v>0.04742911074487682</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.636417666666667</v>
+        <v>11.190867</v>
       </c>
       <c r="H4">
-        <v>22.909253</v>
+        <v>33.572601</v>
       </c>
       <c r="I4">
-        <v>0.108532481296676</v>
+        <v>0.1514016037116739</v>
       </c>
       <c r="J4">
-        <v>0.108532481296676</v>
+        <v>0.1514016037116739</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.190471333333334</v>
+        <v>4.190471333333333</v>
       </c>
       <c r="N4">
         <v>12.571414</v>
       </c>
       <c r="O4">
-        <v>0.2319089575818893</v>
+        <v>0.3128218053630638</v>
       </c>
       <c r="P4">
-        <v>0.2319089575818892</v>
+        <v>0.3128218053630638</v>
       </c>
       <c r="Q4">
-        <v>32.00018932152689</v>
+        <v>46.89500735864599</v>
       </c>
       <c r="R4">
-        <v>288.001703893742</v>
+        <v>422.0550662278139</v>
       </c>
       <c r="S4">
-        <v>0.02516965460128802</v>
+        <v>0.04736172300794895</v>
       </c>
       <c r="T4">
-        <v>0.02516965460128802</v>
+        <v>0.04736172300794895</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>45.31015499999999</v>
       </c>
       <c r="I5">
-        <v>0.214656652056136</v>
+        <v>0.2043341870182926</v>
       </c>
       <c r="J5">
-        <v>0.214656652056136</v>
+        <v>0.2043341870182926</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.682562333333333</v>
+        <v>5.008808666666667</v>
       </c>
       <c r="N5">
-        <v>29.047687</v>
+        <v>15.026426</v>
       </c>
       <c r="O5">
-        <v>0.5358521175370563</v>
+        <v>0.3739112966508367</v>
       </c>
       <c r="P5">
-        <v>0.5358521175370563</v>
+        <v>0.3739112966508367</v>
       </c>
       <c r="Q5">
-        <v>146.2394667068316</v>
+        <v>75.64996568400332</v>
       </c>
       <c r="R5">
-        <v>1316.155200361485</v>
+        <v>680.84969115603</v>
       </c>
       <c r="S5">
-        <v>0.1150242215476956</v>
+        <v>0.07640286081810435</v>
       </c>
       <c r="T5">
-        <v>0.1150242215476956</v>
+        <v>0.07640286081810434</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>45.31015499999999</v>
       </c>
       <c r="I6">
-        <v>0.214656652056136</v>
+        <v>0.2043341870182926</v>
       </c>
       <c r="J6">
-        <v>0.214656652056136</v>
+        <v>0.2043341870182926</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>12.589301</v>
       </c>
       <c r="O6">
-        <v>0.2322389248810544</v>
+        <v>0.3132668979860996</v>
       </c>
       <c r="P6">
-        <v>0.2322389248810544</v>
+        <v>0.3132668979860996</v>
       </c>
       <c r="Q6">
         <v>63.38035329462832</v>
       </c>
       <c r="R6">
-        <v>570.4231796516549</v>
+        <v>570.423179651655</v>
       </c>
       <c r="S6">
-        <v>0.04985163009208358</v>
+        <v>0.06401113691973206</v>
       </c>
       <c r="T6">
-        <v>0.04985163009208359</v>
+        <v>0.06401113691973206</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>45.31015499999999</v>
       </c>
       <c r="I7">
-        <v>0.214656652056136</v>
+        <v>0.2043341870182926</v>
       </c>
       <c r="J7">
-        <v>0.214656652056136</v>
+        <v>0.2043341870182926</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.190471333333334</v>
+        <v>4.190471333333333</v>
       </c>
       <c r="N7">
         <v>12.571414</v>
       </c>
       <c r="O7">
-        <v>0.2319089575818893</v>
+        <v>0.3128218053630638</v>
       </c>
       <c r="P7">
-        <v>0.2319089575818892</v>
+        <v>0.3128218053630638</v>
       </c>
       <c r="Q7">
-        <v>63.29030187879666</v>
+        <v>63.29030187879665</v>
       </c>
       <c r="R7">
-        <v>569.61271690917</v>
+        <v>569.6127169091699</v>
       </c>
       <c r="S7">
-        <v>0.0497808004163568</v>
+        <v>0.0639201892804562</v>
       </c>
       <c r="T7">
-        <v>0.0497808004163568</v>
+        <v>0.06392018928045619</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>47.62086333333334</v>
+        <v>47.62086333333333</v>
       </c>
       <c r="H8">
         <v>142.86259</v>
       </c>
       <c r="I8">
-        <v>0.676810866647188</v>
+        <v>0.6442642092700336</v>
       </c>
       <c r="J8">
-        <v>0.676810866647188</v>
+        <v>0.6442642092700336</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.682562333333333</v>
+        <v>5.008808666666667</v>
       </c>
       <c r="N8">
-        <v>29.047687</v>
+        <v>15.026426</v>
       </c>
       <c r="O8">
-        <v>0.5358521175370563</v>
+        <v>0.3739112966508367</v>
       </c>
       <c r="P8">
-        <v>0.5358521175370563</v>
+        <v>0.3739112966508367</v>
       </c>
       <c r="Q8">
-        <v>461.0919775921478</v>
+        <v>238.5237929781489</v>
       </c>
       <c r="R8">
-        <v>4149.82779832933</v>
+        <v>2146.71413680334</v>
       </c>
       <c r="S8">
-        <v>0.3626705360649859</v>
+        <v>0.2408976658738843</v>
       </c>
       <c r="T8">
-        <v>0.3626705360649859</v>
+        <v>0.2408976658738843</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>47.62086333333334</v>
+        <v>47.62086333333333</v>
       </c>
       <c r="H9">
         <v>142.86259</v>
       </c>
       <c r="I9">
-        <v>0.676810866647188</v>
+        <v>0.6442642092700336</v>
       </c>
       <c r="J9">
-        <v>0.676810866647188</v>
+        <v>0.6442642092700336</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>12.589301</v>
       </c>
       <c r="O9">
-        <v>0.2322389248810544</v>
+        <v>0.3132668979860996</v>
       </c>
       <c r="P9">
-        <v>0.2322389248810544</v>
+        <v>0.3132668979860996</v>
       </c>
       <c r="Q9">
-        <v>199.8377941277323</v>
+        <v>199.8377941277322</v>
       </c>
       <c r="R9">
         <v>1798.54014714959</v>
       </c>
       <c r="S9">
-        <v>0.1571818280179576</v>
+        <v>0.2018266503214907</v>
       </c>
       <c r="T9">
-        <v>0.1571818280179576</v>
+        <v>0.2018266503214907</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>47.62086333333334</v>
+        <v>47.62086333333333</v>
       </c>
       <c r="H10">
         <v>142.86259</v>
       </c>
       <c r="I10">
-        <v>0.676810866647188</v>
+        <v>0.6442642092700336</v>
       </c>
       <c r="J10">
-        <v>0.676810866647188</v>
+        <v>0.6442642092700336</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.190471333333334</v>
+        <v>4.190471333333333</v>
       </c>
       <c r="N10">
         <v>12.571414</v>
       </c>
       <c r="O10">
-        <v>0.2319089575818893</v>
+        <v>0.3128218053630638</v>
       </c>
       <c r="P10">
-        <v>0.2319089575818892</v>
+        <v>0.3128218053630638</v>
       </c>
       <c r="Q10">
-        <v>199.5538626669178</v>
+        <v>199.5538626669177</v>
       </c>
       <c r="R10">
         <v>1795.98476400226</v>
       </c>
       <c r="S10">
-        <v>0.1569585025642444</v>
+        <v>0.2015398930746586</v>
       </c>
       <c r="T10">
-        <v>0.1569585025642444</v>
+        <v>0.2015398930746586</v>
       </c>
     </row>
   </sheetData>
